--- a/Nana&Rene/PedidosTest.xlsx
+++ b/Nana&Rene/PedidosTest.xlsx
@@ -47,7 +47,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>2-Queque,1-Torta,</t>
+    <t>1-Torta,2-Queque,</t>
   </si>
   <si>
     <t>05-10-2019</t>

--- a/Nana&Rene/PedidosTest.xlsx
+++ b/Nana&Rene/PedidosTest.xlsx
@@ -65,7 +65,7 @@
     <t>9-48485930</t>
   </si>
   <si>
-    <t>Pendiente</t>
+    <t>Retirado</t>
   </si>
   <si>
     <t>1-Kuchen Manzana,</t>
@@ -155,9 +155,6 @@
     <t>9-75819247</t>
   </si>
   <si>
-    <t>Finalizado</t>
-  </si>
-  <si>
     <t>16-10-2019</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>2-Torta,</t>
+  </si>
+  <si>
+    <t>20-11-2019</t>
   </si>
   <si>
     <t>albertitohurtado@gmail.com</t>
@@ -454,7 +454,7 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H7" t="n">
         <v>1020.0</v>
@@ -477,19 +477,19 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>49</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H8" t="n">
         <v>450.0</v>
@@ -506,13 +506,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -524,7 +524,7 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H9" t="n">
         <v>10000.0</v>

--- a/Nana&Rene/PedidosTest.xlsx
+++ b/Nana&Rene/PedidosTest.xlsx
@@ -47,7 +47,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>1-Torta,2-Queque,</t>
+    <t>2-Queque,1-Torta,</t>
   </si>
   <si>
     <t>05-10-2019</t>

--- a/Nana&Rene/PedidosTest.xlsx
+++ b/Nana&Rene/PedidosTest.xlsx
@@ -47,7 +47,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>1-Torta,2-Queque,</t>
+    <t>2-Queque,1-Torta,</t>
   </si>
   <si>
     <t>05-10-2019</t>
@@ -65,7 +65,7 @@
     <t>9-48485930</t>
   </si>
   <si>
-    <t>Retirado</t>
+    <t>Pendiente</t>
   </si>
   <si>
     <t>1-Kuchen Manzana,</t>
@@ -155,6 +155,9 @@
     <t>9-75819247</t>
   </si>
   <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
     <t>16-10-2019</t>
   </si>
   <si>
@@ -168,9 +171,6 @@
   </si>
   <si>
     <t>2-Torta,</t>
-  </si>
-  <si>
-    <t>20-11-2019</t>
   </si>
   <si>
     <t>albertitohurtado@gmail.com</t>
@@ -454,7 +454,7 @@
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H7" t="n">
         <v>1020.0</v>
@@ -477,19 +477,19 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
         <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
       </c>
       <c r="H8" t="n">
         <v>450.0</v>
@@ -506,13 +506,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -524,7 +524,7 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H9" t="n">
         <v>10000.0</v>

--- a/Nana&Rene/PedidosTest.xlsx
+++ b/Nana&Rene/PedidosTest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>Tipo de producto</t>
   </si>
@@ -155,19 +155,22 @@
     <t>9-75819247</t>
   </si>
   <si>
+    <t>Retirado</t>
+  </si>
+  <si>
+    <t>16-10-2019</t>
+  </si>
+  <si>
+    <t>Javiera Cabrera</t>
+  </si>
+  <si>
+    <t>javieracabrera14@gmail.com</t>
+  </si>
+  <si>
+    <t>9-66666666</t>
+  </si>
+  <si>
     <t>Finalizado</t>
-  </si>
-  <si>
-    <t>16-10-2019</t>
-  </si>
-  <si>
-    <t>Javiera Cabrera</t>
-  </si>
-  <si>
-    <t>javieracabrera14@gmail.com</t>
-  </si>
-  <si>
-    <t>9-66666666</t>
   </si>
   <si>
     <t>2-Torta,</t>
@@ -489,7 +492,7 @@
         <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H8" t="n">
         <v>450.0</v>
@@ -506,7 +509,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -518,13 +521,13 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H9" t="n">
         <v>10000.0</v>

--- a/Nana&Rene/PedidosTest.xlsx
+++ b/Nana&Rene/PedidosTest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>Tipo de producto</t>
   </si>
@@ -47,7 +47,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>1-Torta,2-Queque,</t>
+    <t>2-Queque,1-Torta,</t>
   </si>
   <si>
     <t>05-10-2019</t>
@@ -86,6 +86,9 @@
     <t>9-47382938</t>
   </si>
   <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
     <t>1-Queque,</t>
   </si>
   <si>
@@ -122,6 +125,9 @@
     <t>9-37284547</t>
   </si>
   <si>
+    <t>Retirado</t>
+  </si>
+  <si>
     <t>1-Tartaleta Durazno,</t>
   </si>
   <si>
@@ -153,9 +159,6 @@
   </si>
   <si>
     <t>9-75819247</t>
-  </si>
-  <si>
-    <t>Finalizado</t>
   </si>
   <si>
     <t>16-10-2019</t>
@@ -314,7 +317,7 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H3" t="n">
         <v>700.0</v>
@@ -331,25 +334,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
       </c>
       <c r="H4" t="n">
         <v>450.0</v>
@@ -366,25 +369,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H5" t="n">
         <v>900.0</v>
@@ -401,25 +404,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
       </c>
       <c r="H6" t="n">
         <v>1000.0</v>
@@ -436,25 +439,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H7" t="n">
         <v>1020.0</v>
@@ -471,25 +474,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H8" t="n">
         <v>450.0</v>
@@ -506,10 +509,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -518,13 +521,13 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
         <v>10000.0</v>
